--- a/APP/Modules/Admin/Tpl/Public/xlsx/course.xlsx
+++ b/APP/Modules/Admin/Tpl/Public/xlsx/course.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,11 +33,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算机应用基础2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计算机平面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程类型(1公共课，2专业课)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机应用基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -96,6 +100,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -376,20 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.625" customWidth="1"/>
-    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -397,18 +405,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
